--- a/Plazas.xlsx
+++ b/Plazas.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharm\Desktop\Formación 2023\Curso Python\CursoPython\Fase 3 - Programacion Orientada a Objetos\Tema 08 - Programacion Orientada a Objetos\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharm\Desktop\Proyecto simulador plazas oposición\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674491D5-61EF-49D1-B6B5-E7F44EBADDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF70276-28B9-4E8F-98F3-A053A817259A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28275" yWindow="990" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2424" yWindow="2832" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -36,6 +31,9 @@
     <t>Especialidad</t>
   </si>
   <si>
+    <t>Asignacion</t>
+  </si>
+  <si>
     <t>Salamanca</t>
   </si>
   <si>
@@ -64,9 +62,6 @@
   </si>
   <si>
     <t>Toledo</t>
-  </si>
-  <si>
-    <t>Asignacion</t>
   </si>
 </sst>
 </file>
@@ -137,7 +132,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +417,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,46 +439,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -491,13 +486,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -505,13 +500,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -519,13 +514,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
